--- a/notebooks/data/df_transparencia_.xlsx
+++ b/notebooks/data/df_transparencia_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/495715c1b5296d13/MB_Magister_ y_ otros/DATA_SCIENCE_UDD/6. CAPSTONE/Capstone_git/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B2B83AAC-70F3-D94F-A397-024FCB4F1D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D972976A-82A1-904C-A588-B2FEEEFF7CFB}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{B2B83AAC-70F3-D94F-A397-024FCB4F1D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D7A854-6DE3-674C-9584-E0615B36AAEC}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="1040" windowWidth="27220" windowHeight="17380" xr2:uid="{0913AC16-447A-D34F-8765-BAE561D5D275}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="27220" windowHeight="17380" xr2:uid="{0913AC16-447A-D34F-8765-BAE561D5D275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>2013</t>
   </si>
   <si>
-    <t>Bosnia y Herzegovina</t>
-  </si>
-  <si>
     <t>Grecia</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Corea, República de</t>
-  </si>
-  <si>
-    <t>Países Bajos</t>
-  </si>
-  <si>
     <t>República Eslovaca</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Canadá</t>
   </si>
   <si>
-    <t>Nueva Zelandia</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
@@ -177,16 +165,34 @@
   </si>
   <si>
     <t>cluster</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Bosnia-Herzegovina</t>
+  </si>
+  <si>
+    <t>Corea del Sur</t>
+  </si>
+  <si>
+    <t>Nueva Zelanda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,10 +255,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -518,6 +521,9 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -539,6 +545,9 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -553,22 +562,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32BC5752-D65C-6A40-AABA-DD78BF3EEF15}" name="Table1" displayName="Table1" ref="A1:N34" totalsRowShown="0" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32BC5752-D65C-6A40-AABA-DD78BF3EEF15}" name="Table1" displayName="Table1" ref="A1:N34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="27">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{28EEB62E-4576-CF47-B029-56635BFBBEAB}" name="Country Name"/>
-    <tableColumn id="2" xr3:uid="{CE316557-260D-D74A-A7E8-649B65BA9ABF}" name="cluster" dataDxfId="0" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{048104FD-4802-9E4C-BFF3-7F4F45027750}" name="2012" dataDxfId="1" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{DCB94D10-63EA-8049-BD69-8F33ECAF0DA9}" name="2013" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{CC3D6A1E-F3F5-2D44-8EAE-2A8340F16537}" name="2014" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{4E523140-C970-C946-A50E-0305F38A9790}" name="2015" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{60D02A9E-D1AC-6649-91E0-FD2D4F44EF2E}" name="2016" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{8F215AAA-40C2-954E-9017-3B7F9F5D53A4}" name="2017" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{4911198A-D0C9-FD41-B40B-B095D289C3AA}" name="2018" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{BD262474-3E78-1444-8FDA-A6E1C0912289}" name="2019" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{96791DBB-8D89-2A43-9AAB-75BB5F3CF89A}" name="2020" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{4B590679-A72A-DB4C-82AD-664790DED42E}" name="2021" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{780528EF-B3D2-5242-AE38-643AC101125C}" name="2022" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{63F7A034-5A93-E845-A9C9-9761D324C3A1}" name="2023" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CE316557-260D-D74A-A7E8-649B65BA9ABF}" name="cluster" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{048104FD-4802-9E4C-BFF3-7F4F45027750}" name="2012" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{DCB94D10-63EA-8049-BD69-8F33ECAF0DA9}" name="2013" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{CC3D6A1E-F3F5-2D44-8EAE-2A8340F16537}" name="2014" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{4E523140-C970-C946-A50E-0305F38A9790}" name="2015" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{60D02A9E-D1AC-6649-91E0-FD2D4F44EF2E}" name="2016" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{8F215AAA-40C2-954E-9017-3B7F9F5D53A4}" name="2017" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{4911198A-D0C9-FD41-B40B-B095D289C3AA}" name="2018" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{BD262474-3E78-1444-8FDA-A6E1C0912289}" name="2019" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{96791DBB-8D89-2A43-9AAB-75BB5F3CF89A}" name="2020" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{4B590679-A72A-DB4C-82AD-664790DED42E}" name="2021" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{780528EF-B3D2-5242-AE38-643AC101125C}" name="2022" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{63F7A034-5A93-E845-A9C9-9761D324C3A1}" name="2023" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -893,62 +902,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70D591D-93C4-8B4C-AA4C-D4A0D9A04663}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="242" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>44</v>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -998,7 +1007,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1086,7 +1095,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1130,7 +1139,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1174,7 +1183,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1262,7 +1271,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1306,7 +1315,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1350,7 +1359,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1394,7 +1403,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1482,7 +1491,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1526,7 +1535,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1570,7 +1579,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -1614,7 +1623,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -1658,7 +1667,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1702,7 +1711,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -1746,7 +1755,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -1790,7 +1799,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1834,7 +1843,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1878,7 +1887,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1966,7 +1975,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -2054,7 +2063,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -2098,7 +2107,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2142,7 +2151,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -2186,7 +2195,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -2318,7 +2327,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -2362,7 +2371,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2405,7 +2414,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
